--- a/Log8.xlsx
+++ b/Log8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77B08BD-D8DF-4168-9C32-4AC21D21D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8CD94-E149-481A-A382-DB44A73F4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="N12">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="N13">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="N17">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="N18">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="N19">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="N20">
-        <v>90</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="N21">
-        <v>98</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="N22">
-        <v>98</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="N23">
-        <v>99</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="N24">
-        <v>99</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
